--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/carlos_galeana_betancourt_intel_com/Documents/Documents/Licitaciones/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_7C8100F380DB4C10AD2D4CFC856D0F85787CAB18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA581DD-34B6-4EB2-B598-2299DED3AFE9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1192,7 +1198,7 @@
     <t>notebook</t>
   </si>
   <si>
-    <t xml:space="preserve">  Adquisición de 16  ALL IN ONE HP AIO PRO 17 Windows 11 Pro Intel Core 17- 12700 16 GB RAM 512 SSD Gama 3 UNIBODY, Con cargo a la Ley 20.248</t>
+    <t>  Adquisición de 16  ALL IN ONE HP AIO PRO 17 Windows 11 Pro Intel Core 17- 12700 16 GB RAM 512 SSD Gama 3 UNIBODY, Con cargo a la Ley 20.248</t>
   </si>
   <si>
     <t>Orden de Compra: 1036569-141-CM23</t>
@@ -2767,8 +2773,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2831,13 +2837,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2875,7 +2889,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2909,6 +2923,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2943,9 +2958,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3118,14 +3134,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C267"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="172.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="77.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -3276,7 +3307,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>68</v>
       </c>
@@ -3353,7 +3384,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -3430,7 +3461,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>76</v>
       </c>
@@ -3507,7 +3538,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>92</v>
       </c>
@@ -3584,7 +3615,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>365</v>
       </c>
@@ -3661,7 +3692,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>366</v>
       </c>
@@ -3738,7 +3769,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>595</v>
       </c>
@@ -3815,7 +3846,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>596</v>
       </c>
@@ -3892,7 +3923,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>597</v>
       </c>
@@ -3969,7 +4000,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>598</v>
       </c>
@@ -4046,7 +4077,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>630</v>
       </c>
@@ -4123,7 +4154,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>632</v>
       </c>
@@ -4200,7 +4231,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>832</v>
       </c>
@@ -4277,7 +4308,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1162</v>
       </c>
@@ -4354,7 +4385,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1163</v>
       </c>
@@ -4431,7 +4462,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1164</v>
       </c>
@@ -4508,7 +4539,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1256</v>
       </c>
@@ -4585,7 +4616,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1371</v>
       </c>
@@ -4662,7 +4693,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1372</v>
       </c>
@@ -4739,7 +4770,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3234</v>
       </c>
@@ -4816,7 +4847,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>3235</v>
       </c>
@@ -4893,7 +4924,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3339</v>
       </c>
@@ -4970,7 +5001,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3549</v>
       </c>
@@ -5047,7 +5078,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3654</v>
       </c>
@@ -5124,7 +5155,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>4051</v>
       </c>
@@ -5201,7 +5232,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>4096</v>
       </c>
@@ -5278,7 +5309,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4444</v>
       </c>
@@ -5355,7 +5386,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4616</v>
       </c>
@@ -5432,7 +5463,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>4720</v>
       </c>
@@ -5509,7 +5540,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4721</v>
       </c>
@@ -5586,7 +5617,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4824</v>
       </c>
@@ -5663,7 +5694,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4916</v>
       </c>
@@ -5740,7 +5771,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4917</v>
       </c>
@@ -5817,7 +5848,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>5017</v>
       </c>
@@ -5894,7 +5925,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5570</v>
       </c>
@@ -5971,7 +6002,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>5733</v>
       </c>
@@ -6048,7 +6079,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>5856</v>
       </c>
@@ -6125,7 +6156,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>5974</v>
       </c>
@@ -6202,7 +6233,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>5975</v>
       </c>
@@ -6279,7 +6310,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>6049</v>
       </c>
@@ -6356,7 +6387,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>7091</v>
       </c>
@@ -6433,7 +6464,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7225</v>
       </c>
@@ -6510,7 +6541,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>7226</v>
       </c>
@@ -6587,7 +6618,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>7268</v>
       </c>
@@ -6664,7 +6695,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>7352</v>
       </c>
@@ -6741,7 +6772,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>7489</v>
       </c>
@@ -6818,7 +6849,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>7490</v>
       </c>
@@ -6895,7 +6926,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>7762</v>
       </c>
@@ -6972,7 +7003,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>8054</v>
       </c>
@@ -7049,7 +7080,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>8114</v>
       </c>
@@ -7126,7 +7157,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>8115</v>
       </c>
@@ -7203,7 +7234,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>8173</v>
       </c>
@@ -7280,7 +7311,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>8174</v>
       </c>
@@ -7357,7 +7388,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>8175</v>
       </c>
@@ -7434,7 +7465,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>8176</v>
       </c>
@@ -7511,7 +7542,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>8301</v>
       </c>
@@ -7588,7 +7619,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>8448</v>
       </c>
@@ -7665,7 +7696,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>8449</v>
       </c>
@@ -7742,7 +7773,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>8516</v>
       </c>
@@ -7819,7 +7850,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>8728</v>
       </c>
@@ -7896,7 +7927,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>8810</v>
       </c>
@@ -7973,7 +8004,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>8894</v>
       </c>
@@ -8050,7 +8081,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>8904</v>
       </c>
@@ -8127,7 +8158,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>9030</v>
       </c>
@@ -8204,7 +8235,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>9032</v>
       </c>
@@ -8281,7 +8312,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>9652</v>
       </c>
@@ -8358,7 +8389,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>10341</v>
       </c>
@@ -8435,7 +8466,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>10558</v>
       </c>
@@ -8512,7 +8543,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>10612</v>
       </c>
@@ -8589,7 +8620,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>11109</v>
       </c>
@@ -8666,7 +8697,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>11259</v>
       </c>
@@ -8743,7 +8774,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>11402</v>
       </c>
@@ -8820,7 +8851,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>11403</v>
       </c>
@@ -8897,7 +8928,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>11456</v>
       </c>
@@ -8974,7 +9005,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>12074</v>
       </c>
@@ -9051,7 +9082,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>12197</v>
       </c>
@@ -9128,7 +9159,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>12221</v>
       </c>
@@ -9205,7 +9236,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>12335</v>
       </c>
@@ -9282,7 +9313,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>12447</v>
       </c>
@@ -9359,7 +9390,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>12448</v>
       </c>
@@ -9436,7 +9467,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>12449</v>
       </c>
@@ -9513,7 +9544,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>12538</v>
       </c>
@@ -9590,7 +9621,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>12717</v>
       </c>
@@ -9667,7 +9698,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>12923</v>
       </c>
@@ -9744,7 +9775,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>12958</v>
       </c>
@@ -9821,7 +9852,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>13042</v>
       </c>
@@ -9898,7 +9929,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>13530</v>
       </c>
@@ -9975,7 +10006,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>13831</v>
       </c>
@@ -10052,7 +10083,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>13996</v>
       </c>
@@ -10129,7 +10160,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>14006</v>
       </c>
@@ -10206,7 +10237,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>14274</v>
       </c>
@@ -10283,7 +10314,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>14845</v>
       </c>
@@ -10360,7 +10391,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>15216</v>
       </c>
@@ -10437,7 +10468,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>15217</v>
       </c>
@@ -10514,7 +10545,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>15360</v>
       </c>
@@ -10591,7 +10622,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>15817</v>
       </c>
@@ -10668,7 +10699,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>15851</v>
       </c>
@@ -10745,7 +10776,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>15852</v>
       </c>
@@ -10822,7 +10853,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>15881</v>
       </c>
@@ -10899,7 +10930,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>17254</v>
       </c>
@@ -10976,7 +11007,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>17276</v>
       </c>
@@ -11053,7 +11084,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>17657</v>
       </c>
@@ -11130,7 +11161,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>17718</v>
       </c>
@@ -11207,7 +11238,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>18329</v>
       </c>
@@ -11284,7 +11315,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>18384</v>
       </c>
@@ -11361,7 +11392,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>18385</v>
       </c>
@@ -11438,7 +11469,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>18594</v>
       </c>
@@ -11515,7 +11546,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>18687</v>
       </c>
@@ -11592,7 +11623,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>18688</v>
       </c>
@@ -11669,7 +11700,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>18689</v>
       </c>
@@ -11746,7 +11777,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>18964</v>
       </c>
@@ -11823,7 +11854,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>18965</v>
       </c>
@@ -11900,7 +11931,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>19041</v>
       </c>
@@ -11977,7 +12008,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>19161</v>
       </c>
@@ -12054,7 +12085,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>19338</v>
       </c>
@@ -12131,7 +12162,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>19387</v>
       </c>
@@ -12208,7 +12239,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>19436</v>
       </c>
@@ -12285,7 +12316,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>19584</v>
       </c>
@@ -12362,7 +12393,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>19585</v>
       </c>
@@ -12439,7 +12470,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>19753</v>
       </c>
@@ -12516,7 +12547,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>19754</v>
       </c>
@@ -12593,7 +12624,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>19795</v>
       </c>
@@ -12670,7 +12701,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>19796</v>
       </c>
@@ -12747,7 +12778,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>20261</v>
       </c>
@@ -12824,7 +12855,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>20264</v>
       </c>
@@ -12901,7 +12932,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>20275</v>
       </c>
@@ -12978,7 +13009,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>20510</v>
       </c>
@@ -13055,7 +13086,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>20609</v>
       </c>
@@ -13132,7 +13163,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>20871</v>
       </c>
@@ -13209,7 +13240,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>20899</v>
       </c>
@@ -13286,7 +13317,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>20935</v>
       </c>
@@ -13363,7 +13394,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>20956</v>
       </c>
@@ -13440,7 +13471,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>20957</v>
       </c>
@@ -13517,7 +13548,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>20958</v>
       </c>
@@ -13594,7 +13625,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>20985</v>
       </c>
@@ -13671,7 +13702,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>20986</v>
       </c>
@@ -13748,7 +13779,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>20991</v>
       </c>
@@ -13825,7 +13856,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>21018</v>
       </c>
@@ -13902,7 +13933,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>21019</v>
       </c>
@@ -13979,7 +14010,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>21715</v>
       </c>
@@ -14056,7 +14087,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>22029</v>
       </c>
@@ -14133,7 +14164,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>22264</v>
       </c>
@@ -14210,7 +14241,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>22846</v>
       </c>
@@ -14287,7 +14318,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>22882</v>
       </c>
@@ -14364,7 +14395,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>22883</v>
       </c>
@@ -14441,7 +14472,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>23530</v>
       </c>
@@ -14518,7 +14549,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>23531</v>
       </c>
@@ -14595,7 +14626,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>23552</v>
       </c>
@@ -14672,7 +14703,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>23638</v>
       </c>
@@ -14749,7 +14780,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>24090</v>
       </c>
@@ -14826,7 +14857,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>24126</v>
       </c>
@@ -14903,7 +14934,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>24127</v>
       </c>
@@ -14980,7 +15011,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>24128</v>
       </c>
@@ -15057,7 +15088,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>24179</v>
       </c>
@@ -15134,7 +15165,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>24475</v>
       </c>
@@ -15211,7 +15242,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>24476</v>
       </c>
@@ -15288,7 +15319,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>24639</v>
       </c>
@@ -15365,7 +15396,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>24640</v>
       </c>
@@ -15442,7 +15473,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>25296</v>
       </c>
@@ -15519,7 +15550,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>25502</v>
       </c>
@@ -15596,7 +15627,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>25517</v>
       </c>
@@ -15673,7 +15704,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>25612</v>
       </c>
@@ -15750,7 +15781,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>25685</v>
       </c>
@@ -15827,7 +15858,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>25810</v>
       </c>
@@ -15904,7 +15935,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>25811</v>
       </c>
@@ -15981,7 +16012,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>26448</v>
       </c>
@@ -16058,7 +16089,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>27404</v>
       </c>
@@ -16135,7 +16166,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>27807</v>
       </c>
@@ -16212,7 +16243,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>28135</v>
       </c>
@@ -16289,7 +16320,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>28136</v>
       </c>
@@ -16366,7 +16397,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>28343</v>
       </c>
@@ -16443,7 +16474,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>28344</v>
       </c>
@@ -16520,7 +16551,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>28401</v>
       </c>
@@ -16597,7 +16628,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>28406</v>
       </c>
@@ -16674,7 +16705,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>28550</v>
       </c>
@@ -16751,7 +16782,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>28556</v>
       </c>
@@ -16828,7 +16859,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>28557</v>
       </c>
@@ -16905,7 +16936,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>28963</v>
       </c>
@@ -16982,7 +17013,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>29133</v>
       </c>
@@ -17059,7 +17090,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>29169</v>
       </c>
@@ -17136,7 +17167,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>29182</v>
       </c>
@@ -17213,7 +17244,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>29183</v>
       </c>
@@ -17290,7 +17321,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>29316</v>
       </c>
@@ -17367,7 +17398,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>29790</v>
       </c>
@@ -17444,7 +17475,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>29863</v>
       </c>
@@ -17521,7 +17552,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>29864</v>
       </c>
@@ -17598,7 +17629,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>29865</v>
       </c>
@@ -17675,7 +17706,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>29959</v>
       </c>
@@ -17752,7 +17783,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>30119</v>
       </c>
@@ -17829,7 +17860,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>30240</v>
       </c>
@@ -17906,7 +17937,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>30352</v>
       </c>
@@ -17983,7 +18014,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>30353</v>
       </c>
@@ -18060,7 +18091,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>30354</v>
       </c>
@@ -18137,7 +18168,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>30819</v>
       </c>
@@ -18214,7 +18245,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>30820</v>
       </c>
@@ -18291,7 +18322,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>30871</v>
       </c>
@@ -18368,7 +18399,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>31038</v>
       </c>
@@ -18445,7 +18476,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>31347</v>
       </c>
@@ -18522,7 +18553,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>31348</v>
       </c>
@@ -18599,7 +18630,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>31472</v>
       </c>
@@ -18676,7 +18707,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>31473</v>
       </c>
@@ -18753,7 +18784,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>31474</v>
       </c>
@@ -18830,7 +18861,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>31542</v>
       </c>
@@ -18907,7 +18938,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>31798</v>
       </c>
@@ -18984,7 +19015,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>32569</v>
       </c>
@@ -19061,7 +19092,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>32726</v>
       </c>
@@ -19138,7 +19169,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>32972</v>
       </c>
@@ -19215,7 +19246,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>33027</v>
       </c>
@@ -19292,7 +19323,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>33043</v>
       </c>
@@ -19369,7 +19400,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>33086</v>
       </c>
@@ -19446,7 +19477,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="213" spans="1:25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>33407</v>
       </c>
@@ -19523,7 +19554,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="214" spans="1:25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>33408</v>
       </c>
@@ -19600,7 +19631,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="215" spans="1:25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>33409</v>
       </c>
@@ -19677,7 +19708,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="216" spans="1:25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>33685</v>
       </c>
@@ -19754,7 +19785,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="217" spans="1:25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>34322</v>
       </c>
@@ -19831,7 +19862,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>34560</v>
       </c>
@@ -19908,7 +19939,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>35005</v>
       </c>
@@ -19985,7 +20016,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>35119</v>
       </c>
@@ -20062,7 +20093,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="221" spans="1:25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>35779</v>
       </c>
@@ -20139,7 +20170,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>35987</v>
       </c>
@@ -20216,7 +20247,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>35997</v>
       </c>
@@ -20293,7 +20324,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>36521</v>
       </c>
@@ -20370,7 +20401,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="225" spans="1:25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>36683</v>
       </c>
@@ -20447,7 +20478,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="226" spans="1:25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>37471</v>
       </c>
@@ -20524,7 +20555,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="227" spans="1:25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>38021</v>
       </c>
@@ -20601,7 +20632,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="228" spans="1:25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>38022</v>
       </c>
@@ -20678,7 +20709,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="229" spans="1:25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>38023</v>
       </c>
@@ -20755,7 +20786,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="230" spans="1:25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>38073</v>
       </c>
@@ -20832,7 +20863,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="231" spans="1:25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>38074</v>
       </c>
@@ -20909,7 +20940,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="232" spans="1:25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>38169</v>
       </c>
@@ -20986,7 +21017,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="233" spans="1:25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>39020</v>
       </c>
@@ -21063,7 +21094,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="234" spans="1:25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>39075</v>
       </c>
@@ -21140,7 +21171,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="235" spans="1:25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>39191</v>
       </c>
@@ -21217,7 +21248,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="1:25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>39192</v>
       </c>
@@ -21294,7 +21325,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="237" spans="1:25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>39364</v>
       </c>
@@ -21371,7 +21402,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="238" spans="1:25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>39365</v>
       </c>
@@ -21448,7 +21479,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="239" spans="1:25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>39407</v>
       </c>
@@ -21525,7 +21556,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="240" spans="1:25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>39435</v>
       </c>
@@ -21602,7 +21633,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="241" spans="1:25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>39667</v>
       </c>
@@ -21679,7 +21710,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="242" spans="1:25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>39723</v>
       </c>
@@ -21756,7 +21787,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="243" spans="1:25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>39940</v>
       </c>
@@ -21833,7 +21864,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="244" spans="1:25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>39941</v>
       </c>
@@ -21910,7 +21941,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="245" spans="1:25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>40964</v>
       </c>
@@ -21987,7 +22018,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="246" spans="1:25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>40993</v>
       </c>
@@ -22064,7 +22095,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="247" spans="1:25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>41337</v>
       </c>
@@ -22141,7 +22172,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="248" spans="1:25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>41864</v>
       </c>
@@ -22218,7 +22249,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="249" spans="1:25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>41905</v>
       </c>
@@ -22295,7 +22326,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="250" spans="1:25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>42407</v>
       </c>
@@ -22372,7 +22403,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="251" spans="1:25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>42900</v>
       </c>
@@ -22449,7 +22480,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="252" spans="1:25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>42901</v>
       </c>
@@ -22526,7 +22557,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="253" spans="1:25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>43219</v>
       </c>
@@ -22603,7 +22634,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="254" spans="1:25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>43243</v>
       </c>
@@ -22680,7 +22711,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="255" spans="1:25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>43413</v>
       </c>
@@ -22757,7 +22788,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="256" spans="1:25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>43431</v>
       </c>
@@ -22834,7 +22865,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>43719</v>
       </c>
@@ -22911,7 +22942,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>43768</v>
       </c>
@@ -22988,7 +23019,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44227</v>
       </c>
@@ -23065,7 +23096,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44228</v>
       </c>
@@ -23142,7 +23173,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="261" spans="1:25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44908</v>
       </c>
@@ -23219,7 +23250,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="262" spans="1:25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44909</v>
       </c>
@@ -23296,7 +23327,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="263" spans="1:25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44944</v>
       </c>
@@ -23373,7 +23404,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="264" spans="1:25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44945</v>
       </c>
@@ -23450,7 +23481,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44957</v>
       </c>
@@ -23527,7 +23558,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44958</v>
       </c>
@@ -23604,7 +23635,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44970</v>
       </c>
@@ -23681,7 +23712,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>45520</v>
       </c>
